--- a/ExcelReaderScript/Testcase_2_date.xlsx
+++ b/ExcelReaderScript/Testcase_2_date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Testcase name</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Testcase_2_003</t>
+  </si>
+  <si>
+    <t>testbench</t>
+  </si>
+  <si>
+    <t>SYS-110.tbc</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +430,7 @@
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +461,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -484,8 +493,11 @@
       <c r="J2">
         <v>6</v>
       </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="J3">
         <v>6</v>
       </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -541,6 +556,9 @@
       </c>
       <c r="J4">
         <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReaderScript/Testcase_2_date.xlsx
+++ b/ExcelReaderScript/Testcase_2_date.xlsx
@@ -69,10 +69,10 @@
     <t>Testcase_2_003</t>
   </si>
   <si>
-    <t>testbench</t>
-  </si>
-  <si>
     <t>SYS-110.tbc</t>
+  </si>
+  <si>
+    <t>tbc</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
